--- a/01_electrical/02_stm32cubemx_basic/05_test_uart/test_uart.xlsx
+++ b/01_electrical/02_stm32cubemx_basic/05_test_uart/test_uart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\gitee\robowalker2023 train\01 STM32CubeMX_Basic\05 test_uart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Organization\1_RoboWalker\Admin\train\main\01_electrical\02_stm32cubemx_basic\05_test_uart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BF4739-2C66-4237-9E97-73AA873D693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E56D56-BD05-4C81-9BA1-1154111F3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -47,15 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标志帧起始, 必须为低电平0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5~8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先发低位后发高位，一般常见的都是8位，也就是一个字节. 也有7位的,相当于发ASCII码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标志帧结束, 必须为高电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,7 +78,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链路上不传输任何信息, 必须为高电平1</t>
+    <t>标志帧起始
+必须为低电平0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先发低位后发高位
+一般常见的都是8位, 也就是一个字节
+也有7位的,相当于发ASCII码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志帧结束
+必须为高电平1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路上不传输任何信息
+必须为高电平1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +213,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,24 +543,24 @@
   <dimension ref="A1:XFC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -557,37 +571,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -6050,25 +6064,25 @@
       <c r="XEZ5" s="1"/>
       <c r="XFC5" s="1"/>
     </row>
-    <row r="6" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1023 1026:2046 2049:3072 3075:4095 4098:5118 5121:6144 6147:7167 7170:8190 8193:9216 9219:10239 10242:11262 11265:12288 12291:13311 13314:14334 14337:15360 15363:16383" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1"/>
